--- a/backend/Module-Ecommerce/DB.xlsx
+++ b/backend/Module-Ecommerce/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>products</t>
   </si>
@@ -33,9 +33,6 @@
     <t>store_id</t>
   </si>
   <si>
-    <t>product_image1-5</t>
-  </si>
-  <si>
     <t>product_categories</t>
   </si>
   <si>
@@ -51,21 +48,9 @@
     <t>product_url</t>
   </si>
   <si>
-    <t>product_price1-5</t>
-  </si>
-  <si>
     <t>product_code</t>
   </si>
   <si>
-    <t>product_SKU</t>
-  </si>
-  <si>
-    <t>product_JAN</t>
-  </si>
-  <si>
-    <t>product_UPC</t>
-  </si>
-  <si>
     <t>product_is_virtual</t>
   </si>
   <si>
@@ -91,6 +76,18 @@
   </si>
   <si>
     <t>store_currency</t>
+  </si>
+  <si>
+    <t>product_image4-6</t>
+  </si>
+  <si>
+    <t>product_price2-6</t>
+  </si>
+  <si>
+    <t>product_price1</t>
+  </si>
+  <si>
+    <t>product_image1</t>
   </si>
 </sst>
 </file>
@@ -461,141 +458,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
